--- a/CinemaManagementApp/bin/Debug/BillTemplate/BillTemplate.xlsx
+++ b/CinemaManagementApp/bin/Debug/BillTemplate/BillTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sales Invoice'!$B$2:$H$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -573,37 +573,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="27"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -632,7 +632,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1173,7 +1173,7 @@
         <xdr:cNvPr id="1042" name="Picture 18" descr="Logo placeholder">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1188,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1296,7 +1296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Arial">
       <a:majorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1331,7 +1331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1569,17 +1569,17 @@
       <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:9" s="19" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -1597,18 +1597,18 @@
       </c>
       <c r="H3" s="41">
         <f ca="1">TODAY()</f>
-        <v>45237</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>30</v>
@@ -1640,13 +1640,13 @@
       <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
@@ -1662,10 +1662,10 @@
     <row r="8" spans="1:9" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5"/>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
@@ -1673,10 +1673,10 @@
     <row r="9" spans="1:9" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="3"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
@@ -1736,13 +1736,13 @@
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
@@ -1777,29 +1777,29 @@
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -1807,13 +1807,11 @@
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
@@ -1903,16 +1901,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B18:H18"/>
+  <mergeCells count="14">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C7:D7"/>
@@ -1922,6 +1913,9 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1937,23 +1931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2eb7a32e66fb6e4260f3771546a5e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04e1f6479c48b08974ba73b5ca973489" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -2164,10 +2141,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45902C9A-5867-4802-A44E-BECAD859F42E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E88B6DA-CA7C-432C-887C-C763D26BB06C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2190,20 +2195,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E88B6DA-CA7C-432C-887C-C763D26BB06C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45902C9A-5867-4802-A44E-BECAD859F42E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>